--- a/recitation_log.xlsx
+++ b/recitation_log.xlsx
@@ -508,16 +508,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5</t>
+          <t>5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+5+1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-10-12 16:04:30</t>
+          <t>2025-12-04 23:51:47</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
